--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8730" windowHeight="2565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13020" windowHeight="2565"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:E6"/>
@@ -32,9 +33,6 @@
     <t>cdharmale30@gmail.com</t>
   </si>
   <si>
-    <t>wapking1306-</t>
-  </si>
-  <si>
     <t>firstname</t>
   </si>
   <si>
@@ -44,31 +42,34 @@
     <t>email</t>
   </si>
   <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>timcook@gmail.com</t>
+  </si>
+  <si>
+    <t>Janrao</t>
+  </si>
+  <si>
+    <t>daware</t>
+  </si>
+  <si>
+    <t>janraodavare@gmail.com</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>timcook@gmail.com</t>
-  </si>
-  <si>
-    <t>sgbau1234</t>
-  </si>
-  <si>
-    <t>Janrao</t>
-  </si>
-  <si>
-    <t>daware</t>
-  </si>
-  <si>
-    <t>janraodavare@gmail.com</t>
-  </si>
-  <si>
-    <t>JRDavare@123</t>
+    <t>wapking1306</t>
+  </si>
+  <si>
+    <t>pass123@</t>
+  </si>
+  <si>
+    <t>pass*765</t>
   </si>
 </sst>
 </file>
@@ -100,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +112,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,10 +133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,35 +419,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,34 +458,34 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -487,7 +494,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -504,4 +511,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13020" windowHeight="2565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="2925"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="HomePageTest" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet22" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E6"/>
+  <oleSize ref="A1:L7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Chetan</t>
   </si>
@@ -66,10 +69,10 @@
     <t>wapking1306</t>
   </si>
   <si>
-    <t>pass123@</t>
-  </si>
-  <si>
-    <t>pass*765</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +115,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
     <fill>
@@ -133,11 +141,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,10 +439,11 @@
     <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -446,8 +456,11 @@
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -460,8 +473,11 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -471,11 +487,14 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -486,6 +505,9 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -494,10 +516,9 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -523,4 +544,40 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,20 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="2925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="2955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
-    <sheet name="HomePageTest" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet22" sheetId="6" r:id="rId6"/>
+    <sheet name="TestData" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L7"/>
+  <oleSize ref="A1:I7"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Chetan</t>
   </si>
@@ -73,13 +69,77 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>Alfreds Futterkiste</t>
+  </si>
+  <si>
+    <t>Maria Anders</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Centro comercial Moctezuma</t>
+  </si>
+  <si>
+    <t>Francisco Chang</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Ernst Handel</t>
+  </si>
+  <si>
+    <t>Roland Mendel</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Island Trading</t>
+  </si>
+  <si>
+    <t>Helen Bennett</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Laughing Bacchus Winecellars</t>
+  </si>
+  <si>
+    <t>Yoshi Tannamuri</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Magazzini Alimentari Riuniti</t>
+  </si>
+  <si>
+    <t>Giovanni Rovelli</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +179,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -141,12 +291,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,17 +589,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -524,60 +683,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.93359375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.40234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.93359375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.40234375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="27.578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.93359375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.40234375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>